--- a/biology/Zoologie/Callionima_falcifera/Callionima_falcifera.xlsx
+++ b/biology/Zoologie/Callionima_falcifera/Callionima_falcifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callionima falcifera est une espèce d'insectes lépidoptères (papillons) de la famille des Sphingidae, sous-famille des Macroglossinae, et du genre Callionima.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago
 L' envergure est de 68-73 mm. Le sommet de l' aile antérieure est extrêmement pointue et falciformes. Le dessus de l' aile antérieure est très  similaire à celui de Callionima parce.
@@ -551,7 +565,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les chenilles se nourrissent sur Stemmadenia obovata et probablement d'autres espèces de Apocynaceae.
 Au Costa Rica , les adultes volent tous les mois de l'année.</t>
@@ -582,7 +598,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Elle se rencontre au nord dans le sud des États-Unis (Californie du Sud, Arizona, et Floride).  Au sud  au Mexique, Belize, Nicaragua,au  Costa Rica et de la Jamaïque , au  Venezuela.
@@ -614,18 +632,88 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce  Callionima falcifera a été décrite par l'entomologiste Bruno Gehlen (1871-1951), sous le nom initial de Hemeroplanes falcifera[1]
-La localité type est Zacualpan, Mexique.
-Synonymie
-Hemeroplanes falcifera Gehlen, 1943 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce  Callionima falcifera a été décrite par l'entomologiste Bruno Gehlen (1871-1951), sous le nom initial de Hemeroplanes falcifera
+La localité type est Zacualpan, Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callionima_falcifera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callionima_falcifera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hemeroplanes falcifera Gehlen, 1943 Protonyme
 Hemeroplanes jamaicensis Cary, 1951
-Hemeroplanes falcifera f. elainae Neidhoefer, 1968
-Taxinomie
-Liste des sous-espèces
+Hemeroplanes falcifera f. elainae Neidhoefer, 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callionima_falcifera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callionima_falcifera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Callionima falcifera falcifera (Gehlen, 1943)
-Callionima falcifera guaycura (Cary, 1963)[2]
+Callionima falcifera guaycura (Cary, 1963)
 La localité type est : Hotel Guaycura, La Paz, Baja California Sur.</t>
         </is>
       </c>
